--- a/biology/Botanique/Fucus_spiralis/Fucus_spiralis.xlsx
+++ b/biology/Botanique/Fucus_spiralis/Fucus_spiralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fucus spiralis, le Fucus spiralé, est une espèce d’algues brunes de la famille des Fucaceae. C'est une des espèces de Fucus qui supporte le mieux de longues exondations et se trouve ainsi fréquemment en haut de la zone de balancement des marées.
-La ceinture de Fucus spiralis est généralement précédée de la ceinture de Pelvetia canaliculata et est parfois associée à l'algue encroûtante rouge Hildenbrandia rubra[1].
+La ceinture de Fucus spiralis est généralement précédée de la ceinture de Pelvetia canaliculata et est parfois associée à l'algue encroûtante rouge Hildenbrandia rubra.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (14 février 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (14 février 2024) :
 variété Fucus spiralis var. lutarius (Kützing) Sauvageau, 1908</t>
         </is>
       </c>
